--- a/docs/ValueSet-gvhdtype-valueset.xlsx
+++ b/docs/ValueSet-gvhdtype-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T15:34:16-05:00</t>
+    <t>2022-07-29T16:31:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-gvhdtype-valueset.xlsx
+++ b/docs/ValueSet-gvhdtype-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T16:31:05-05:00</t>
+    <t>2022-08-02T11:06:34-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-gvhdtype-valueset.xlsx
+++ b/docs/ValueSet-gvhdtype-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T11:06:34-05:00</t>
+    <t>2022-08-02T15:12:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-gvhdtype-valueset.xlsx
+++ b/docs/ValueSet-gvhdtype-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T15:12:35-05:00</t>
+    <t>2022-08-09T16:48:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-gvhdtype-valueset.xlsx
+++ b/docs/ValueSet-gvhdtype-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T16:48:03-05:00</t>
+    <t>2022-08-09T17:12:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-gvhdtype-valueset.xlsx
+++ b/docs/ValueSet-gvhdtype-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T17:12:26-05:00</t>
+    <t>2022-08-10T08:52:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-gvhdtype-valueset.xlsx
+++ b/docs/ValueSet-gvhdtype-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T08:52:57-05:00</t>
+    <t>2022-08-10T09:42:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-gvhdtype-valueset.xlsx
+++ b/docs/ValueSet-gvhdtype-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T09:42:24-05:00</t>
+    <t>2022-08-10T09:52:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-gvhdtype-valueset.xlsx
+++ b/docs/ValueSet-gvhdtype-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T09:52:13-05:00</t>
+    <t>2022-08-10T12:44:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-gvhdtype-valueset.xlsx
+++ b/docs/ValueSet-gvhdtype-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T12:44:20-05:00</t>
+    <t>2022-08-10T13:05:09-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-gvhdtype-valueset.xlsx
+++ b/docs/ValueSet-gvhdtype-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T13:05:09-05:00</t>
+    <t>2022-08-10T13:28:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-gvhdtype-valueset.xlsx
+++ b/docs/ValueSet-gvhdtype-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T13:28:25-05:00</t>
+    <t>2022-08-11T16:57:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-gvhdtype-valueset.xlsx
+++ b/docs/ValueSet-gvhdtype-valueset.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4a</t>
+    <t>0.1.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T16:57:48-05:00</t>
+    <t>2022-08-24T16:05:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-gvhdtype-valueset.xlsx
+++ b/docs/ValueSet-gvhdtype-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T16:05:20-05:00</t>
+    <t>2022-08-31T14:35:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-gvhdtype-valueset.xlsx
+++ b/docs/ValueSet-gvhdtype-valueset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T14:35:45-05:00</t>
+    <t>2022-09-02T15:43:08-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,37 +112,10 @@
     <t>http://snomed.info/sct</t>
   </si>
   <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>CADSR:4722619</t>
-  </si>
-  <si>
-    <t>Acute GVHD</t>
-  </si>
-  <si>
-    <t>CADSR:2991794</t>
-  </si>
-  <si>
-    <t>Classic cGVHD</t>
-  </si>
-  <si>
-    <t>CADSR:2991796</t>
-  </si>
-  <si>
-    <t>Late Acute GVHD</t>
-  </si>
-  <si>
-    <t>CADSR:3261243</t>
-  </si>
-  <si>
-    <t>Not Applicable</t>
-  </si>
-  <si>
-    <t>CADSR:2991795</t>
-  </si>
-  <si>
-    <t>Overlap cGVHD</t>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
   </si>
   <si>
     <t>http://cdebrowser.nci.nih.gov</t>
@@ -465,7 +438,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -479,64 +452,26 @@
       <c r="A1" t="s" s="1">
         <v>32</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>34</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ValueSet-gvhdtype-valueset.xlsx
+++ b/docs/ValueSet-gvhdtype-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T15:43:08-05:00</t>
+    <t>2022-09-08T13:29:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-gvhdtype-valueset.xlsx
+++ b/docs/ValueSet-gvhdtype-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T13:29:45-05:00</t>
+    <t>2022-11-09T13:32:08-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-gvhdtype-valueset.xlsx
+++ b/docs/ValueSet-gvhdtype-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T13:32:08-06:00</t>
+    <t>2022-11-09T14:05:34-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-gvhdtype-valueset.xlsx
+++ b/docs/ValueSet-gvhdtype-valueset.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T14:05:34-06:00</t>
+    <t>2022-11-10T14:39:35-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
